--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/elec/bpaff/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F74202-8B25-AD41-83AD-5661D72178D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="23960" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -198,6 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,6 +304,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,6 +356,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,24 +548,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,116 +576,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -647,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -655,17 +705,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -673,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -681,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -689,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -697,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -705,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -713,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -721,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -729,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -737,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -745,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -753,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -762,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -771,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -780,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -789,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -804,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -812,17 +862,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -830,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -838,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -846,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -854,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -862,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -870,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -878,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -886,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -894,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -902,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -910,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -919,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -928,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -937,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -946,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>

--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/elec/bpaff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bpaff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F74202-8B25-AD41-83AD-5661D72178D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67338A6A-9FF1-D042-943E-81DB8815055B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="23960" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bpaff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67338A6A-9FF1-D042-943E-81DB8815055B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="23960" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -164,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,7 +198,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,23 +291,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -356,23 +326,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,27 +501,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,116 +526,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -697,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -705,17 +655,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -723,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -731,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -739,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -747,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -755,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -763,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -771,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -779,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -787,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -795,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -803,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -812,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -821,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -830,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -839,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -854,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -862,17 +812,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -880,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -888,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -896,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -904,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -912,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -920,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -928,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -936,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -944,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -952,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -960,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -969,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -978,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -987,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -996,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
